--- a/Bancos_carteras_propias.xlsx
+++ b/Bancos_carteras_propias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\45087114\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{556B385C-ECAE-4EF5-ACDD-CA0400C4E91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5BC893-C6A4-9849-AF53-C2E99AC00BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{73D4B19A-438F-4062-9AF9-967B30BBDBA1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{73D4B19A-438F-4062-9AF9-967B30BBDBA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -38,39 +37,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>BANCO AV VILLAS 4801 NOVARTEC</t>
-  </si>
-  <si>
     <t>BANCO POPULAR 5538 CONTACTO</t>
   </si>
   <si>
-    <t>BANCOLOMBIA 1865 NOVARTEC</t>
-  </si>
-  <si>
     <t>BANCOLOMBIA 1670 NOVARTEC</t>
   </si>
   <si>
-    <t>BANCOLOMBIA 1445 NOVARTEC</t>
-  </si>
-  <si>
     <t>BANCOLOMBIA 8245 CONTACTO</t>
   </si>
   <si>
-    <t>BANCO AV VILLAS 0934 CONTACTO</t>
-  </si>
-  <si>
     <t>BANCO BBVA 1005 NOVARTEC</t>
   </si>
   <si>
-    <t>BANCO AV VILLAS 5185 CONTACTO</t>
-  </si>
-  <si>
-    <t>BANCO AV VILLAS 9504 CONTACTO</t>
-  </si>
-  <si>
-    <t>BANCOLOMBIA 6125 CONTACTO</t>
-  </si>
-  <si>
     <t>BANCO AV VILLAS 9784 CONTACTO</t>
   </si>
   <si>
@@ -84,6 +62,27 @@
   </si>
   <si>
     <t>TIPO DE BANCO</t>
+  </si>
+  <si>
+    <t>BANCO AV VILLAS 9504 CONTACTO o Convenio 10860</t>
+  </si>
+  <si>
+    <t>BANCOLOMBIA 1865 NOVARTEC o Convenio 89620</t>
+  </si>
+  <si>
+    <t>BANCOLOMBIA 1445 NOVARTEC o Convenio 89452</t>
+  </si>
+  <si>
+    <t>BANCOLOMBIA 6125 CONTACTO o Convenio 8417</t>
+  </si>
+  <si>
+    <t>BANCO AV VILLAS 4801 NOVARTEC o Convenio 24345</t>
+  </si>
+  <si>
+    <t>BANCOLOMBIA 0934 CONTACTO o convenio 31011</t>
+  </si>
+  <si>
+    <t>BANCO AV VILLAS 5185 CONTACTO o Convenio 8731</t>
   </si>
 </sst>
 </file>
@@ -475,92 +474,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB43996-59EA-4F61-B864-D0A1050C5E04}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
